--- a/EPL_FINALSPREAD.xlsx
+++ b/EPL_FINALSPREAD.xlsx
@@ -4624,7 +4624,7 @@
         <v>30.0</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="CB6" t="n">
         <v>0.0</v>
@@ -4869,7 +4869,7 @@
         <v>0.0</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="CB7" t="n">
         <v>0.0</v>
@@ -8789,7 +8789,7 @@
         <v>19.0</v>
       </c>
       <c r="CA23" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="CB23" t="n">
         <v>1.0</v>
@@ -10014,7 +10014,7 @@
         <v>0.0</v>
       </c>
       <c r="CA28" t="n">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="CB28" t="n">
         <v>0.0</v>
@@ -10259,7 +10259,7 @@
         <v>0.0</v>
       </c>
       <c r="CA29" t="n">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
       <c r="CB29" t="n">
         <v>1.0</v>
@@ -12709,7 +12709,7 @@
         <v>26.0</v>
       </c>
       <c r="CA39" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="CB39" t="n">
         <v>0.0</v>
@@ -15894,7 +15894,7 @@
         <v>46.0</v>
       </c>
       <c r="CA52" t="n">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
       <c r="CB52" t="n">
         <v>1.0</v>
@@ -17609,7 +17609,7 @@
         <v>36.0</v>
       </c>
       <c r="CA59" t="n">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="CB59" t="n">
         <v>1.0</v>
@@ -17854,7 +17854,7 @@
         <v>0.0</v>
       </c>
       <c r="CA60" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="CB60" t="n">
         <v>0.0</v>
@@ -18344,7 +18344,7 @@
         <v>33.0</v>
       </c>
       <c r="CA62" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="CB62" t="n">
         <v>2.0</v>
@@ -18589,7 +18589,7 @@
         <v>66.0</v>
       </c>
       <c r="CA63" t="n">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
       <c r="CB63" t="n">
         <v>0.0</v>
@@ -21774,7 +21774,7 @@
         <v>10.0</v>
       </c>
       <c r="CA76" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="CB76" t="n">
         <v>0.0</v>
@@ -22019,7 +22019,7 @@
         <v>84.0</v>
       </c>
       <c r="CA77" t="n">
-        <v>0.0</v>
+        <v>84.0</v>
       </c>
       <c r="CB77" t="n">
         <v>0.0</v>
@@ -24469,7 +24469,7 @@
         <v>0.0</v>
       </c>
       <c r="CA87" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="CB87" t="n">
         <v>0.0</v>
@@ -25204,7 +25204,7 @@
         <v>54.0</v>
       </c>
       <c r="CA90" t="n">
-        <v>0.0</v>
+        <v>54.0</v>
       </c>
       <c r="CB90" t="n">
         <v>1.0</v>
@@ -25449,7 +25449,7 @@
         <v>0.0</v>
       </c>
       <c r="CA91" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="CB91" t="n">
         <v>0.0</v>
@@ -26184,7 +26184,7 @@
         <v>60.0</v>
       </c>
       <c r="CA94" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="CB94" t="n">
         <v>1.0</v>
@@ -27409,7 +27409,7 @@
         <v>73.0</v>
       </c>
       <c r="CA99" t="n">
-        <v>0.0</v>
+        <v>73.0</v>
       </c>
       <c r="CB99" t="n">
         <v>0.0</v>
@@ -28634,7 +28634,7 @@
         <v>16.0</v>
       </c>
       <c r="CA104" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="CB104" t="n">
         <v>0.0</v>
@@ -29124,7 +29124,7 @@
         <v>32.0</v>
       </c>
       <c r="CA106" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="CB106" t="n">
         <v>0.0</v>
@@ -30839,7 +30839,7 @@
         <v>93.0</v>
       </c>
       <c r="CA113" t="n">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
       <c r="CB113" t="n">
         <v>0.0</v>
@@ -31329,7 +31329,7 @@
         <v>74.0</v>
       </c>
       <c r="CA115" t="n">
-        <v>0.0</v>
+        <v>74.0</v>
       </c>
       <c r="CB115" t="n">
         <v>0.0</v>
@@ -34759,7 +34759,7 @@
         <v>27.0</v>
       </c>
       <c r="CA129" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="CB129" t="n">
         <v>0.0</v>
@@ -35004,7 +35004,7 @@
         <v>0.0</v>
       </c>
       <c r="CA130" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="CB130" t="n">
         <v>1.0</v>
@@ -36229,7 +36229,7 @@
         <v>0.0</v>
       </c>
       <c r="CA135" t="n">
-        <v>0.0</v>
+        <v>55.0</v>
       </c>
       <c r="CB135" t="n">
         <v>0.0</v>
@@ -37454,7 +37454,7 @@
         <v>0.0</v>
       </c>
       <c r="CA140" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="CB140" t="n">
         <v>0.0</v>
@@ -38924,7 +38924,7 @@
         <v>76.0</v>
       </c>
       <c r="CA146" t="n">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
       <c r="CB146" t="n">
         <v>0.0</v>
@@ -39659,7 +39659,7 @@
         <v>0.0</v>
       </c>
       <c r="CA149" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="CB149" t="n">
         <v>1.0</v>
@@ -39904,7 +39904,7 @@
         <v>0.0</v>
       </c>
       <c r="CA150" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="CB150" t="n">
         <v>0.0</v>
@@ -40639,7 +40639,7 @@
         <v>14.0</v>
       </c>
       <c r="CA153" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="CB153" t="n">
         <v>0.0</v>
@@ -41374,7 +41374,7 @@
         <v>32.0</v>
       </c>
       <c r="CA156" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="CB156" t="n">
         <v>0.0</v>
@@ -43579,7 +43579,7 @@
         <v>70.0</v>
       </c>
       <c r="CA165" t="n">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
       <c r="CB165" t="n">
         <v>0.0</v>
@@ -43824,7 +43824,7 @@
         <v>82.0</v>
       </c>
       <c r="CA166" t="n">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
       <c r="CB166" t="n">
         <v>0.0</v>
@@ -47499,7 +47499,7 @@
         <v>62.0</v>
       </c>
       <c r="CA181" t="n">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
       <c r="CB181" t="n">
         <v>1.0</v>
@@ -47744,7 +47744,7 @@
         <v>0.0</v>
       </c>
       <c r="CA182" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="CB182" t="n">
         <v>0.0</v>
@@ -49459,7 +49459,7 @@
         <v>0.0</v>
       </c>
       <c r="CA189" t="n">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
       <c r="CB189" t="n">
         <v>1.0</v>
@@ -50194,7 +50194,7 @@
         <v>47.0</v>
       </c>
       <c r="CA192" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="CB192" t="n">
         <v>0.0</v>
@@ -51909,7 +51909,7 @@
         <v>0.0</v>
       </c>
       <c r="CA199" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="CB199" t="n">
         <v>0.0</v>
@@ -52154,7 +52154,7 @@
         <v>0.0</v>
       </c>
       <c r="CA200" t="n">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
       <c r="CB200" t="n">
         <v>0.0</v>
@@ -54604,7 +54604,7 @@
         <v>40.0</v>
       </c>
       <c r="CA210" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="CB210" t="n">
         <v>0.0</v>
@@ -57054,7 +57054,7 @@
         <v>0.0</v>
       </c>
       <c r="CA220" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="CB220" t="n">
         <v>0.0</v>
@@ -58034,7 +58034,7 @@
         <v>0.0</v>
       </c>
       <c r="CA224" t="n">
-        <v>0.0</v>
+        <v>44.0</v>
       </c>
       <c r="CB224" t="n">
         <v>0.0</v>
@@ -58769,7 +58769,7 @@
         <v>37.0</v>
       </c>
       <c r="CA227" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="CB227" t="n">
         <v>0.0</v>
@@ -59259,7 +59259,7 @@
         <v>0.0</v>
       </c>
       <c r="CA229" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="CB229" t="n">
         <v>0.0</v>
@@ -59504,7 +59504,7 @@
         <v>54.0</v>
       </c>
       <c r="CA230" t="n">
-        <v>0.0</v>
+        <v>54.0</v>
       </c>
       <c r="CB230" t="n">
         <v>0.0</v>
@@ -61219,7 +61219,7 @@
         <v>0.0</v>
       </c>
       <c r="CA237" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="CB237" t="n">
         <v>1.0</v>
@@ -63179,7 +63179,7 @@
         <v>66.0</v>
       </c>
       <c r="CA245" t="n">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
       <c r="CB245" t="n">
         <v>0.0</v>
@@ -64159,7 +64159,7 @@
         <v>87.0</v>
       </c>
       <c r="CA249" t="n">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
       <c r="CB249" t="n">
         <v>0.0</v>
@@ -66119,7 +66119,7 @@
         <v>0.0</v>
       </c>
       <c r="CA257" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="CB257" t="n">
         <v>0.0</v>
@@ -67589,7 +67589,7 @@
         <v>85.0</v>
       </c>
       <c r="CA263" t="n">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
       <c r="CB263" t="n">
         <v>0.0</v>
@@ -68814,7 +68814,7 @@
         <v>68.0</v>
       </c>
       <c r="CA268" t="n">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="CB268" t="n">
         <v>0.0</v>
@@ -69059,7 +69059,7 @@
         <v>0.0</v>
       </c>
       <c r="CA269" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="CB269" t="n">
         <v>0.0</v>
@@ -70529,7 +70529,7 @@
         <v>19.0</v>
       </c>
       <c r="CA275" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="CB275" t="n">
         <v>0.0</v>
@@ -71264,7 +71264,7 @@
         <v>47.0</v>
       </c>
       <c r="CA278" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="CB278" t="n">
         <v>1.0</v>
@@ -75184,7 +75184,7 @@
         <v>67.0</v>
       </c>
       <c r="CA294" t="n">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
       <c r="CB294" t="n">
         <v>0.0</v>
@@ -75429,7 +75429,7 @@
         <v>81.0</v>
       </c>
       <c r="CA295" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="CB295" t="n">
         <v>1.0</v>
@@ -75674,7 +75674,7 @@
         <v>0.0</v>
       </c>
       <c r="CA296" t="n">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
       <c r="CB296" t="n">
         <v>0.0</v>
@@ -76164,7 +76164,7 @@
         <v>54.0</v>
       </c>
       <c r="CA298" t="n">
-        <v>0.0</v>
+        <v>54.0</v>
       </c>
       <c r="CB298" t="n">
         <v>0.0</v>
@@ -77389,7 +77389,7 @@
         <v>87.0</v>
       </c>
       <c r="CA303" t="n">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
       <c r="CB303" t="n">
         <v>0.0</v>
@@ -80329,7 +80329,7 @@
         <v>27.0</v>
       </c>
       <c r="CA315" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="CB315" t="n">
         <v>0.0</v>
@@ -81064,7 +81064,7 @@
         <v>0.0</v>
       </c>
       <c r="CA318" t="n">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="CB318" t="n">
         <v>1.0</v>
@@ -81554,7 +81554,7 @@
         <v>0.0</v>
       </c>
       <c r="CA320" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="CB320" t="n">
         <v>1.0</v>
@@ -83024,7 +83024,7 @@
         <v>0.0</v>
       </c>
       <c r="CA326" t="n">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
       <c r="CB326" t="n">
         <v>0.0</v>
@@ -84249,7 +84249,7 @@
         <v>0.0</v>
       </c>
       <c r="CA331" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="CB331" t="n">
         <v>0.0</v>
@@ -85229,7 +85229,7 @@
         <v>37.0</v>
       </c>
       <c r="CA335" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="CB335" t="n">
         <v>0.0</v>
@@ -85474,7 +85474,7 @@
         <v>37.0</v>
       </c>
       <c r="CA336" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="CB336" t="n">
         <v>1.0</v>
@@ -85719,7 +85719,7 @@
         <v>0.0</v>
       </c>
       <c r="CA337" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="CB337" t="n">
         <v>0.0</v>
@@ -85964,7 +85964,7 @@
         <v>30.0</v>
       </c>
       <c r="CA338" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="CB338" t="n">
         <v>0.0</v>
@@ -86209,7 +86209,7 @@
         <v>83.0</v>
       </c>
       <c r="CA339" t="n">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
       <c r="CB339" t="n">
         <v>0.0</v>
@@ -88414,7 +88414,7 @@
         <v>67.0</v>
       </c>
       <c r="CA348" t="n">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
       <c r="CB348" t="n">
         <v>0.0</v>
@@ -89884,7 +89884,7 @@
         <v>41.0</v>
       </c>
       <c r="CA354" t="n">
-        <v>0.0</v>
+        <v>41.0</v>
       </c>
       <c r="CB354" t="n">
         <v>2.0</v>
@@ -91109,7 +91109,7 @@
         <v>0.0</v>
       </c>
       <c r="CA359" t="n">
-        <v>0.0</v>
+        <v>78.0</v>
       </c>
       <c r="CB359" t="n">
         <v>1.0</v>
@@ -93069,7 +93069,7 @@
         <v>71.0</v>
       </c>
       <c r="CA367" t="n">
-        <v>0.0</v>
+        <v>71.0</v>
       </c>
       <c r="CB367" t="n">
         <v>0.0</v>
@@ -95029,7 +95029,7 @@
         <v>0.0</v>
       </c>
       <c r="CA375" t="n">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
       <c r="CB375" t="n">
         <v>0.0</v>
@@ -96254,7 +96254,7 @@
         <v>75.0</v>
       </c>
       <c r="CA380" t="n">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
       <c r="CB380" t="n">
         <v>0.0</v>
@@ -96499,7 +96499,7 @@
         <v>0.0</v>
       </c>
       <c r="CA381" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="CB381" t="n">
         <v>0.0</v>

--- a/EPL_FINALSPREAD.xlsx
+++ b/EPL_FINALSPREAD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="315">
   <si>
     <t>Div</t>
   </si>
@@ -413,6 +413,36 @@
     <t>50</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>E0</t>
   </si>
   <si>
@@ -518,6 +548,9 @@
     <t>3-0</t>
   </si>
   <si>
+    <t>4-2</t>
+  </si>
+  <si>
     <t>0-3</t>
   </si>
   <si>
@@ -659,6 +692,24 @@
     <t>9-1</t>
   </si>
   <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>17-0</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>10-0</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -815,6 +866,36 @@
     <t>Man City-Arsenal</t>
   </si>
   <si>
+    <t>Newcastle-Man City</t>
+  </si>
+  <si>
+    <t>Arsenal-Leicester</t>
+  </si>
+  <si>
+    <t>Brentford-West Ham</t>
+  </si>
+  <si>
+    <t>Chelsea-Brighton</t>
+  </si>
+  <si>
+    <t>Everton-Crystal Palace</t>
+  </si>
+  <si>
+    <t>Nottm Forest-Fulham</t>
+  </si>
+  <si>
+    <t>Wolves-Liverpool</t>
+  </si>
+  <si>
+    <t>Ipswich-Aston Villa</t>
+  </si>
+  <si>
+    <t>Man United-Tottenham</t>
+  </si>
+  <si>
+    <t>Bournemouth-Southampton</t>
+  </si>
+  <si>
     <t>R Jones</t>
   </si>
   <si>
@@ -873,6 +954,9 @@
   </si>
   <si>
     <t>J Brooks</t>
+  </si>
+  <si>
+    <t>A Madley</t>
   </si>
 </sst>
 </file>
@@ -1184,16 +1268,16 @@
         <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45520.0</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -1202,7 +1286,7 @@
         <v>0.0</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -1211,7 +1295,7 @@
         <v>0.0</v>
       </c>
       <c r="K2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L2" t="n">
         <v>1.63</v>
@@ -1223,10 +1307,10 @@
         <v>5.3</v>
       </c>
       <c r="O2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="Q2" t="n">
         <v>14.0</v>
@@ -1274,16 +1358,16 @@
         <v>22.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="AG2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AH2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ2" t="n">
         <v>5.0</v>
@@ -1292,10 +1376,10 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="AM2" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="AN2" t="n">
         <v>87.0</v>
@@ -1438,16 +1522,16 @@
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -1456,7 +1540,7 @@
         <v>2.0</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I3" t="n">
         <v>0.0</v>
@@ -1465,7 +1549,7 @@
         <v>0.0</v>
       </c>
       <c r="K3" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L3" t="n">
         <v>8.18</v>
@@ -1477,10 +1561,10 @@
         <v>1.34</v>
       </c>
       <c r="O3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q3" t="n">
         <v>7.0</v>
@@ -1528,16 +1612,16 @@
         <v>27.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="AG3" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ3" t="n">
         <v>4.0</v>
@@ -1546,10 +1630,10 @@
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="AM3" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="AN3" t="n">
         <v>125.0</v>
@@ -1692,16 +1776,16 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F4" t="n">
         <v>2.0</v>
@@ -1710,7 +1794,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I4" t="n">
         <v>1.0</v>
@@ -1719,7 +1803,7 @@
         <v>0.0</v>
       </c>
       <c r="K4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L4" t="n">
         <v>1.16</v>
@@ -1731,10 +1815,10 @@
         <v>16.22</v>
       </c>
       <c r="O4" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Q4" t="n">
         <v>18.0</v>
@@ -1782,16 +1866,16 @@
         <v>31.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="AG4" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH4" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI4" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ4" t="n">
         <v>4.0</v>
@@ -1800,10 +1884,10 @@
         <v>0.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AM4" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="AN4" t="n">
         <v>99.0</v>
@@ -1946,16 +2030,16 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -1964,7 +2048,7 @@
         <v>3.0</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
@@ -1973,7 +2057,7 @@
         <v>1.0</v>
       </c>
       <c r="K5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L5" t="n">
         <v>2.73</v>
@@ -1985,10 +2069,10 @@
         <v>2.71</v>
       </c>
       <c r="O5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="Q5" t="n">
         <v>9.0</v>
@@ -2036,16 +2120,16 @@
         <v>16.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="AG5" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH5" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI5" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ5" t="n">
         <v>2.0</v>
@@ -2054,10 +2138,10 @@
         <v>1.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="AM5" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="AN5" t="n">
         <v>167.0</v>
@@ -2200,16 +2284,16 @@
         <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="F6" t="n">
         <v>1.0</v>
@@ -2218,7 +2302,7 @@
         <v>0.0</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I6" t="n">
         <v>1.0</v>
@@ -2227,7 +2311,7 @@
         <v>0.0</v>
       </c>
       <c r="K6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L6" t="n">
         <v>1.35</v>
@@ -2239,10 +2323,10 @@
         <v>8.25</v>
       </c>
       <c r="O6" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P6" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="Q6" t="n">
         <v>3.0</v>
@@ -2290,16 +2374,16 @@
         <v>31.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AG6" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AH6" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI6" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ6" t="n">
         <v>6.0</v>
@@ -2308,10 +2392,10 @@
         <v>1.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="AM6" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="AN6" t="n">
         <v>45.0</v>
@@ -2454,16 +2538,16 @@
         <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="F7" t="n">
         <v>1.0</v>
@@ -2472,7 +2556,7 @@
         <v>1.0</v>
       </c>
       <c r="H7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I7" t="n">
         <v>1.0</v>
@@ -2481,7 +2565,7 @@
         <v>0.0</v>
       </c>
       <c r="K7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L7" t="n">
         <v>2.47</v>
@@ -2493,10 +2577,10 @@
         <v>2.97</v>
       </c>
       <c r="O7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q7" t="n">
         <v>14.0</v>
@@ -2544,16 +2628,16 @@
         <v>25.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="AG7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ7" t="n">
         <v>4.0</v>
@@ -2562,10 +2646,10 @@
         <v>0.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="AM7" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="AN7" t="n">
         <v>109.0</v>
@@ -2708,16 +2792,16 @@
         <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F8" t="n">
         <v>1.0</v>
@@ -2726,7 +2810,7 @@
         <v>2.0</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I8" t="n">
         <v>1.0</v>
@@ -2735,7 +2819,7 @@
         <v>1.0</v>
       </c>
       <c r="K8" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L8" t="n">
         <v>2.49</v>
@@ -2747,10 +2831,10 @@
         <v>2.8</v>
       </c>
       <c r="O8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="P8" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q8" t="n">
         <v>14.0</v>
@@ -2798,16 +2882,16 @@
         <v>29.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="AG8" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH8" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI8" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ8" t="n">
         <v>3.0</v>
@@ -2816,10 +2900,10 @@
         <v>0.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="AM8" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="AN8" t="n">
         <v>120.0</v>
@@ -2962,16 +3046,16 @@
         <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F9" t="n">
         <v>2.0</v>
@@ -2980,7 +3064,7 @@
         <v>1.0</v>
       </c>
       <c r="H9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I9" t="n">
         <v>1.0</v>
@@ -2989,7 +3073,7 @@
         <v>0.0</v>
       </c>
       <c r="K9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L9" t="n">
         <v>2.5</v>
@@ -3001,10 +3085,10 @@
         <v>2.95</v>
       </c>
       <c r="O9" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q9" t="n">
         <v>9.0</v>
@@ -3052,16 +3136,16 @@
         <v>21.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AG9" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH9" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI9" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ9" t="n">
         <v>6.0</v>
@@ -3070,10 +3154,10 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="AM9" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="AN9" t="n">
         <v>161.0</v>
@@ -3216,16 +3300,16 @@
         <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -3234,7 +3318,7 @@
         <v>2.0</v>
       </c>
       <c r="H10" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
@@ -3243,7 +3327,7 @@
         <v>1.0</v>
       </c>
       <c r="K10" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L10" t="n">
         <v>4.19</v>
@@ -3255,10 +3339,10 @@
         <v>1.84</v>
       </c>
       <c r="O10" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P10" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q10" t="n">
         <v>10.0</v>
@@ -3306,16 +3390,16 @@
         <v>21.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AG10" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH10" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI10" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ10" t="n">
         <v>2.0</v>
@@ -3324,10 +3408,10 @@
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="AM10" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="AN10" t="n">
         <v>102.0</v>
@@ -3470,16 +3554,16 @@
         <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>45523.0</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="F11" t="n">
         <v>1.0</v>
@@ -3488,7 +3572,7 @@
         <v>1.0</v>
       </c>
       <c r="H11" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I11" t="n">
         <v>0.0</v>
@@ -3497,7 +3581,7 @@
         <v>1.0</v>
       </c>
       <c r="K11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L11" t="n">
         <v>5.09</v>
@@ -3509,10 +3593,10 @@
         <v>1.63</v>
       </c>
       <c r="O11" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q11" t="n">
         <v>7.0</v>
@@ -3560,16 +3644,16 @@
         <v>23.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AG11" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH11" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI11" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ11" t="n">
         <v>2.0</v>
@@ -3578,10 +3662,10 @@
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="AM11" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="AN11" t="n">
         <v>86.0</v>
@@ -3724,17 +3808,17 @@
         <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" t="s">
         <v>144</v>
       </c>
-      <c r="E12" t="s">
-        <v>134</v>
-      </c>
       <c r="F12" t="n">
         <v>2.0</v>
       </c>
@@ -3742,7 +3826,7 @@
         <v>1.0</v>
       </c>
       <c r="H12" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I12" t="n">
         <v>1.0</v>
@@ -3751,7 +3835,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L12" t="n">
         <v>2.51</v>
@@ -3763,10 +3847,10 @@
         <v>2.76</v>
       </c>
       <c r="O12" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q12" t="n">
         <v>14.0</v>
@@ -3814,16 +3898,16 @@
         <v>22.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG12" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH12" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI12" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ12" t="n">
         <v>3.0</v>
@@ -3832,10 +3916,10 @@
         <v>0.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="AM12" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="AN12" t="n">
         <v>182.0</v>
@@ -3978,16 +4062,16 @@
         <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F13" t="n">
         <v>0.0</v>
@@ -3996,7 +4080,7 @@
         <v>2.0</v>
       </c>
       <c r="H13" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
@@ -4005,7 +4089,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L13" t="n">
         <v>2.17</v>
@@ -4017,10 +4101,10 @@
         <v>3.33</v>
       </c>
       <c r="O13" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q13" t="n">
         <v>14.0</v>
@@ -4068,16 +4152,16 @@
         <v>26.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AG13" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH13" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI13" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ13" t="n">
         <v>2.0</v>
@@ -4086,10 +4170,10 @@
         <v>0.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="AM13" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="AN13" t="n">
         <v>139.0</v>
@@ -4232,16 +4316,16 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F14" t="n">
         <v>2.0</v>
@@ -4250,7 +4334,7 @@
         <v>1.0</v>
       </c>
       <c r="H14" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I14" t="n">
         <v>1.0</v>
@@ -4259,7 +4343,7 @@
         <v>1.0</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L14" t="n">
         <v>1.84</v>
@@ -4271,10 +4355,10 @@
         <v>4.56</v>
       </c>
       <c r="O14" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="P14" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q14" t="n">
         <v>18.0</v>
@@ -4322,16 +4406,16 @@
         <v>27.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AG14" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH14" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI14" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ14" t="n">
         <v>4.0</v>
@@ -4340,10 +4424,10 @@
         <v>0.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="AM14" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="AN14" t="n">
         <v>126.0</v>
@@ -4486,16 +4570,16 @@
         <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F15" t="n">
         <v>4.0</v>
@@ -4504,7 +4588,7 @@
         <v>1.0</v>
       </c>
       <c r="H15" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I15" t="n">
         <v>3.0</v>
@@ -4513,7 +4597,7 @@
         <v>1.0</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L15" t="n">
         <v>1.08</v>
@@ -4525,10 +4609,10 @@
         <v>25.71</v>
       </c>
       <c r="O15" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="P15" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="Q15" t="n">
         <v>14.0</v>
@@ -4576,16 +4660,16 @@
         <v>19.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AG15" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH15" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI15" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AJ15" t="n">
         <v>5.0</v>
@@ -4594,10 +4678,10 @@
         <v>0.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="AM15" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="AN15" t="n">
         <v>137.0</v>
@@ -4740,16 +4824,16 @@
         <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -4758,7 +4842,7 @@
         <v>1.0</v>
       </c>
       <c r="H16" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
@@ -4767,7 +4851,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L16" t="n">
         <v>2.59</v>
@@ -4779,10 +4863,10 @@
         <v>2.92</v>
       </c>
       <c r="O16" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="P16" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="Q16" t="n">
         <v>5.0</v>
@@ -4830,16 +4914,16 @@
         <v>28.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AG16" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AH16" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI16" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ16" t="n">
         <v>6.0</v>
@@ -4848,10 +4932,10 @@
         <v>0.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="AM16" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="AN16" t="n">
         <v>70.0</v>
@@ -4994,16 +5078,16 @@
         <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F17" t="n">
         <v>4.0</v>
@@ -5012,7 +5096,7 @@
         <v>0.0</v>
       </c>
       <c r="H17" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I17" t="n">
         <v>2.0</v>
@@ -5021,7 +5105,7 @@
         <v>0.0</v>
       </c>
       <c r="K17" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L17" t="n">
         <v>1.45</v>
@@ -5033,10 +5117,10 @@
         <v>7.03</v>
       </c>
       <c r="O17" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P17" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="Q17" t="n">
         <v>13.0</v>
@@ -5084,16 +5168,16 @@
         <v>26.0</v>
       </c>
       <c r="AF17" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH17" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI17" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AJ17" t="n">
         <v>0.0</v>
@@ -5102,10 +5186,10 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="AM17" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="AN17" t="n">
         <v>187.0</v>
@@ -5248,16 +5332,16 @@
         <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E18" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F18" t="n">
         <v>0.0</v>
@@ -5266,7 +5350,7 @@
         <v>2.0</v>
       </c>
       <c r="H18" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -5275,7 +5359,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L18" t="n">
         <v>4.55</v>
@@ -5287,10 +5371,10 @@
         <v>1.77</v>
       </c>
       <c r="O18" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q18" t="n">
         <v>11.0</v>
@@ -5338,16 +5422,16 @@
         <v>23.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="AG18" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH18" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI18" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ18" t="n">
         <v>4.0</v>
@@ -5356,10 +5440,10 @@
         <v>0.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="AM18" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="AN18" t="n">
         <v>141.0</v>
@@ -5502,16 +5586,16 @@
         <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D19" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F19" t="n">
         <v>1.0</v>
@@ -5520,7 +5604,7 @@
         <v>1.0</v>
       </c>
       <c r="H19" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
@@ -5529,7 +5613,7 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L19" t="n">
         <v>3.05</v>
@@ -5541,10 +5625,10 @@
         <v>2.28</v>
       </c>
       <c r="O19" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P19" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q19" t="n">
         <v>16.0</v>
@@ -5592,16 +5676,16 @@
         <v>27.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH19" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI19" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ19" t="n">
         <v>4.0</v>
@@ -5610,10 +5694,10 @@
         <v>0.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="AM19" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="AN19" t="n">
         <v>113.0</v>
@@ -5756,16 +5840,16 @@
         <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" t="s">
         <v>152</v>
-      </c>
-      <c r="E20" t="s">
-        <v>142</v>
       </c>
       <c r="F20" t="n">
         <v>2.0</v>
@@ -5774,7 +5858,7 @@
         <v>6.0</v>
       </c>
       <c r="H20" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I20" t="n">
         <v>2.0</v>
@@ -5783,7 +5867,7 @@
         <v>2.0</v>
       </c>
       <c r="K20" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L20" t="n">
         <v>4.46</v>
@@ -5795,10 +5879,10 @@
         <v>1.78</v>
       </c>
       <c r="O20" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P20" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="Q20" t="n">
         <v>12.0</v>
@@ -5846,16 +5930,16 @@
         <v>26.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH20" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI20" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AJ20" t="n">
         <v>5.0</v>
@@ -5864,10 +5948,10 @@
         <v>0.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="AM20" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="AN20" t="n">
         <v>369.0</v>
@@ -6010,16 +6094,16 @@
         <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E21" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F21" t="n">
         <v>2.0</v>
@@ -6028,7 +6112,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I21" t="n">
         <v>1.0</v>
@@ -6037,7 +6121,7 @@
         <v>0.0</v>
       </c>
       <c r="K21" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L21" t="n">
         <v>1.25</v>
@@ -6049,10 +6133,10 @@
         <v>10.11</v>
       </c>
       <c r="O21" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P21" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Q21" t="n">
         <v>19.0</v>
@@ -6100,16 +6184,16 @@
         <v>17.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="AG21" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH21" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI21" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ21" t="n">
         <v>5.0</v>
@@ -6118,10 +6202,10 @@
         <v>0.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="AM21" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="AN21" t="n">
         <v>83.0</v>
@@ -6264,16 +6348,16 @@
         <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E22" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="F22" t="n">
         <v>1.0</v>
@@ -6282,7 +6366,7 @@
         <v>1.0</v>
       </c>
       <c r="H22" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I22" t="n">
         <v>1.0</v>
@@ -6291,7 +6375,7 @@
         <v>0.0</v>
       </c>
       <c r="K22" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L22" t="n">
         <v>1.34</v>
@@ -6303,10 +6387,10 @@
         <v>8.1</v>
       </c>
       <c r="O22" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q22" t="n">
         <v>11.0</v>
@@ -6354,16 +6438,16 @@
         <v>19.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="AG22" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH22" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI22" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ22" t="n">
         <v>5.0</v>
@@ -6372,10 +6456,10 @@
         <v>1.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="AM22" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="AN22" t="n">
         <v>96.0</v>
@@ -6518,16 +6602,16 @@
         <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="F23" t="n">
         <v>3.0</v>
@@ -6536,7 +6620,7 @@
         <v>1.0</v>
       </c>
       <c r="H23" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I23" t="n">
         <v>1.0</v>
@@ -6545,7 +6629,7 @@
         <v>0.0</v>
       </c>
       <c r="K23" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L23" t="n">
         <v>1.79</v>
@@ -6557,10 +6641,10 @@
         <v>4.51</v>
       </c>
       <c r="O23" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="Q23" t="n">
         <v>20.0</v>
@@ -6608,16 +6692,16 @@
         <v>17.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AG23" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH23" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI23" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AJ23" t="n">
         <v>3.0</v>
@@ -6626,10 +6710,10 @@
         <v>0.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="AM23" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="AN23" t="n">
         <v>267.0</v>
@@ -6772,16 +6856,16 @@
         <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="F24" t="n">
         <v>2.0</v>
@@ -6790,7 +6874,7 @@
         <v>3.0</v>
       </c>
       <c r="H24" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -6799,7 +6883,7 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L24" t="n">
         <v>2.82</v>
@@ -6811,10 +6895,10 @@
         <v>2.62</v>
       </c>
       <c r="O24" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="P24" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="Q24" t="n">
         <v>18.0</v>
@@ -6862,16 +6946,16 @@
         <v>7.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="AG24" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH24" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI24" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AJ24" t="n">
         <v>3.0</v>
@@ -6880,10 +6964,10 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="AM24" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="AN24" t="n">
         <v>374.0</v>
@@ -7026,16 +7110,16 @@
         <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -7044,7 +7128,7 @@
         <v>1.0</v>
       </c>
       <c r="H25" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I25" t="n">
         <v>1.0</v>
@@ -7053,7 +7137,7 @@
         <v>1.0</v>
       </c>
       <c r="K25" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L25" t="n">
         <v>3.14</v>
@@ -7065,10 +7149,10 @@
         <v>2.32</v>
       </c>
       <c r="O25" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="P25" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q25" t="n">
         <v>11.0</v>
@@ -7116,16 +7200,16 @@
         <v>30.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="AG25" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH25" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI25" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ25" t="n">
         <v>5.0</v>
@@ -7134,10 +7218,10 @@
         <v>0.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="AM25" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="AN25" t="n">
         <v>47.0</v>
@@ -7280,16 +7364,16 @@
         <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E26" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F26" t="n">
         <v>1.0</v>
@@ -7298,7 +7382,7 @@
         <v>2.0</v>
       </c>
       <c r="H26" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -7307,7 +7391,7 @@
         <v>1.0</v>
       </c>
       <c r="K26" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L26" t="n">
         <v>4.8</v>
@@ -7319,10 +7403,10 @@
         <v>1.71</v>
       </c>
       <c r="O26" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q26" t="n">
         <v>9.0</v>
@@ -7370,16 +7454,16 @@
         <v>34.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="AG26" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH26" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI26" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ26" t="n">
         <v>9.0</v>
@@ -7388,10 +7472,10 @@
         <v>0.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="AM26" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="AN26" t="n">
         <v>164.0</v>
@@ -7534,16 +7618,16 @@
         <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F27" t="n">
         <v>1.0</v>
@@ -7552,7 +7636,7 @@
         <v>1.0</v>
       </c>
       <c r="H27" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I27" t="n">
         <v>1.0</v>
@@ -7561,7 +7645,7 @@
         <v>1.0</v>
       </c>
       <c r="K27" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L27" t="n">
         <v>2.02</v>
@@ -7573,10 +7657,10 @@
         <v>3.71</v>
       </c>
       <c r="O27" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="P27" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q27" t="n">
         <v>16.0</v>
@@ -7624,16 +7708,16 @@
         <v>33.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="AG27" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH27" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI27" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ27" t="n">
         <v>7.0</v>
@@ -7642,10 +7726,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="AM27" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="AN27" t="n">
         <v>22.0</v>
@@ -7788,16 +7872,16 @@
         <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F28" t="n">
         <v>1.0</v>
@@ -7806,7 +7890,7 @@
         <v>3.0</v>
       </c>
       <c r="H28" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I28" t="n">
         <v>1.0</v>
@@ -7815,7 +7899,7 @@
         <v>2.0</v>
       </c>
       <c r="K28" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L28" t="n">
         <v>7.69</v>
@@ -7827,10 +7911,10 @@
         <v>1.37</v>
       </c>
       <c r="O28" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="Q28" t="n">
         <v>10.0</v>
@@ -7878,16 +7962,16 @@
         <v>13.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="AG28" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH28" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI28" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AJ28" t="n">
         <v>5.0</v>
@@ -7896,10 +7980,10 @@
         <v>0.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="AM28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="AN28" t="n">
         <v>142.0</v>
@@ -8042,16 +8126,16 @@
         <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F29" t="n">
         <v>1.0</v>
@@ -8060,7 +8144,7 @@
         <v>1.0</v>
       </c>
       <c r="H29" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I29" t="n">
         <v>1.0</v>
@@ -8069,7 +8153,7 @@
         <v>0.0</v>
       </c>
       <c r="K29" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L29" t="n">
         <v>1.63</v>
@@ -8081,10 +8165,10 @@
         <v>5.06</v>
       </c>
       <c r="O29" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P29" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q29" t="n">
         <v>13.0</v>
@@ -8132,16 +8216,16 @@
         <v>22.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="AG29" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH29" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI29" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ29" t="n">
         <v>6.0</v>
@@ -8150,10 +8234,10 @@
         <v>0.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="AM29" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="AN29" t="n">
         <v>78.0</v>
@@ -8296,16 +8380,16 @@
         <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E30" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -8314,7 +8398,7 @@
         <v>1.0</v>
       </c>
       <c r="H30" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I30" t="n">
         <v>1.0</v>
@@ -8323,7 +8407,7 @@
         <v>0.0</v>
       </c>
       <c r="K30" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L30" t="n">
         <v>2.5</v>
@@ -8335,10 +8419,10 @@
         <v>2.62</v>
       </c>
       <c r="O30" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q30" t="n">
         <v>9.0</v>
@@ -8386,16 +8470,16 @@
         <v>29.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="AG30" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH30" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI30" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ30" t="n">
         <v>8.0</v>
@@ -8404,10 +8488,10 @@
         <v>0.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="AM30" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="AN30" t="n">
         <v>171.0</v>
@@ -8550,16 +8634,16 @@
         <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -8568,7 +8652,7 @@
         <v>3.0</v>
       </c>
       <c r="H31" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -8577,7 +8661,7 @@
         <v>2.0</v>
       </c>
       <c r="K31" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L31" t="n">
         <v>3.93</v>
@@ -8589,10 +8673,10 @@
         <v>1.82</v>
       </c>
       <c r="O31" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="Q31" t="n">
         <v>8.0</v>
@@ -8640,16 +8724,16 @@
         <v>14.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="AG31" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH31" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI31" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ31" t="n">
         <v>5.0</v>
@@ -8658,10 +8742,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="AM31" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="AN31" t="n">
         <v>133.0</v>
@@ -8804,16 +8888,16 @@
         <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E32" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F32" t="n">
         <v>0.0</v>
@@ -8822,7 +8906,7 @@
         <v>3.0</v>
       </c>
       <c r="H32" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I32" t="n">
         <v>0.0</v>
@@ -8831,7 +8915,7 @@
         <v>2.0</v>
       </c>
       <c r="K32" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L32" t="n">
         <v>4.5</v>
@@ -8843,10 +8927,10 @@
         <v>1.74</v>
       </c>
       <c r="O32" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="Q32" t="n">
         <v>6.0</v>
@@ -8894,16 +8978,16 @@
         <v>25.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="AG32" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH32" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI32" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ32" t="n">
         <v>5.0</v>
@@ -8912,10 +8996,10 @@
         <v>1.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="AM32" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="AN32" t="n">
         <v>166.0</v>
@@ -9058,16 +9142,16 @@
         <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
@@ -9076,7 +9160,7 @@
         <v>0.0</v>
       </c>
       <c r="H33" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -9085,7 +9169,7 @@
         <v>0.0</v>
       </c>
       <c r="K33" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L33" t="n">
         <v>1.38</v>
@@ -9097,10 +9181,10 @@
         <v>8.05</v>
       </c>
       <c r="O33" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Q33" t="n">
         <v>21.0</v>
@@ -9148,16 +9232,16 @@
         <v>30.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="AG33" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AH33" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI33" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ33" t="n">
         <v>7.0</v>
@@ -9166,10 +9250,10 @@
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="AM33" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="AN33" t="n">
         <v>0.0</v>
@@ -9312,16 +9396,16 @@
         <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F34" t="n">
         <v>2.0</v>
@@ -9330,7 +9414,7 @@
         <v>2.0</v>
       </c>
       <c r="H34" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I34" t="n">
         <v>0.0</v>
@@ -9339,7 +9423,7 @@
         <v>1.0</v>
       </c>
       <c r="K34" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L34" t="n">
         <v>1.62</v>
@@ -9351,10 +9435,10 @@
         <v>5.48</v>
       </c>
       <c r="O34" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P34" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="Q34" t="n">
         <v>20.0</v>
@@ -9402,16 +9486,16 @@
         <v>26.0</v>
       </c>
       <c r="AF34" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="AG34" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH34" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI34" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AJ34" t="n">
         <v>3.0</v>
@@ -9420,10 +9504,10 @@
         <v>0.0</v>
       </c>
       <c r="AL34" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="AM34" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="AN34" t="n">
         <v>204.0</v>
@@ -9566,16 +9650,16 @@
         <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F35" t="n">
         <v>1.0</v>
@@ -9584,7 +9668,7 @@
         <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I35" t="n">
         <v>1.0</v>
@@ -9593,7 +9677,7 @@
         <v>0.0</v>
       </c>
       <c r="K35" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L35" t="n">
         <v>2.4</v>
@@ -9605,10 +9689,10 @@
         <v>2.97</v>
       </c>
       <c r="O35" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P35" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q35" t="n">
         <v>21.0</v>
@@ -9656,16 +9740,16 @@
         <v>33.0</v>
       </c>
       <c r="AF35" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="AG35" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH35" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI35" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ35" t="n">
         <v>5.0</v>
@@ -9674,10 +9758,10 @@
         <v>0.0</v>
       </c>
       <c r="AL35" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="AM35" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="AN35" t="n">
         <v>114.0</v>
@@ -9820,16 +9904,16 @@
         <v>117</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E36" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F36" t="n">
         <v>0.0</v>
@@ -9838,7 +9922,7 @@
         <v>1.0</v>
       </c>
       <c r="H36" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -9847,7 +9931,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L36" t="n">
         <v>1.21</v>
@@ -9859,10 +9943,10 @@
         <v>12.71</v>
       </c>
       <c r="O36" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="P36" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="Q36" t="n">
         <v>15.0</v>
@@ -9910,16 +9994,16 @@
         <v>21.0</v>
       </c>
       <c r="AF36" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="AG36" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AH36" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI36" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ36" t="n">
         <v>8.0</v>
@@ -9928,10 +10012,10 @@
         <v>0.0</v>
       </c>
       <c r="AL36" t="s">
-        <v>251</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>272</v>
+        <v>268</v>
+      </c>
+      <c r="AM36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN36" t="n">
         <v>72.0</v>
@@ -9972,101 +10056,101 @@
       <c r="AZ36" t="n">
         <v>720.0</v>
       </c>
-      <c r="BA36" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="BE36" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="BF36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BG36" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BH36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BI36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BJ36" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BK36" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BL36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO36" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="BP36" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="BQ36" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="BR36" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="BS36" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="BT36" t="n">
-        <v>1200.0</v>
-      </c>
-      <c r="BU36" t="n">
-        <v>325.0</v>
-      </c>
-      <c r="BV36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BW36" t="n">
-        <v>248.0</v>
-      </c>
-      <c r="BX36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BY36" t="n">
-        <v>325.0</v>
-      </c>
-      <c r="BZ36" t="n">
-        <v>248.0</v>
-      </c>
-      <c r="CA36" t="n">
-        <v>573.0</v>
-      </c>
-      <c r="CB36" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="CC36" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="CD36" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="CE36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CF36" t="n">
-        <v>82.0</v>
+      <c r="BA36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BB36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BD36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BE36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BF36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BH36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BI36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BJ36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BK36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BL36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BM36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BN36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BO36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BQ36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BR36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BS36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BT36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BU36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BV36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BW36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BX36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BY36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BZ36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="CA36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="CB36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="CC36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="CD36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="CE36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="CF36" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37">
@@ -10074,16 +10158,16 @@
         <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F37" t="n">
         <v>2.0</v>
@@ -10092,7 +10176,7 @@
         <v>1.0</v>
       </c>
       <c r="H37" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I37" t="n">
         <v>2.0</v>
@@ -10101,7 +10185,7 @@
         <v>1.0</v>
       </c>
       <c r="K37" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L37" t="n">
         <v>1.17</v>
@@ -10113,10 +10197,10 @@
         <v>14.62</v>
       </c>
       <c r="O37" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="P37" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q37" t="n">
         <v>18.0</v>
@@ -10164,16 +10248,16 @@
         <v>12.0</v>
       </c>
       <c r="AF37" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="AG37" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH37" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI37" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ37" t="n">
         <v>4.0</v>
@@ -10182,10 +10266,10 @@
         <v>0.0</v>
       </c>
       <c r="AL37" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AM37" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="AN37" t="n">
         <v>52.0</v>
@@ -10328,16 +10412,16 @@
         <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C38" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F38" t="n">
         <v>3.0</v>
@@ -10346,7 +10430,7 @@
         <v>2.0</v>
       </c>
       <c r="H38" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I38" t="n">
         <v>1.0</v>
@@ -10355,7 +10439,7 @@
         <v>2.0</v>
       </c>
       <c r="K38" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L38" t="n">
         <v>1.51</v>
@@ -10367,10 +10451,10 @@
         <v>6.48</v>
       </c>
       <c r="O38" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="P38" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="Q38" t="n">
         <v>17.0</v>
@@ -10418,16 +10502,16 @@
         <v>22.0</v>
       </c>
       <c r="AF38" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="AG38" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH38" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI38" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AJ38" t="n">
         <v>5.0</v>
@@ -10436,10 +10520,10 @@
         <v>0.0</v>
       </c>
       <c r="AL38" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="AM38" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="AN38" t="n">
         <v>213.0</v>
@@ -10582,16 +10666,16 @@
         <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C39" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E39" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F39" t="n">
         <v>0.0</v>
@@ -10600,7 +10684,7 @@
         <v>1.0</v>
       </c>
       <c r="H39" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
@@ -10609,7 +10693,7 @@
         <v>0.0</v>
       </c>
       <c r="K39" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L39" t="n">
         <v>3.32</v>
@@ -10621,10 +10705,10 @@
         <v>2.06</v>
       </c>
       <c r="O39" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="P39" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="Q39" t="n">
         <v>10.0</v>
@@ -10672,16 +10756,16 @@
         <v>14.0</v>
       </c>
       <c r="AF39" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="AG39" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AH39" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI39" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ39" t="n">
         <v>6.0</v>
@@ -10690,7 +10774,7 @@
         <v>0.0</v>
       </c>
       <c r="AL39" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AM39" t="e">
         <v>#N/A</v>
@@ -10836,16 +10920,16 @@
         <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C40" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F40" t="n">
         <v>0.0</v>
@@ -10854,7 +10938,7 @@
         <v>1.0</v>
       </c>
       <c r="H40" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
@@ -10863,7 +10947,7 @@
         <v>0.0</v>
       </c>
       <c r="K40" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L40" t="n">
         <v>3.03</v>
@@ -10875,10 +10959,10 @@
         <v>2.32</v>
       </c>
       <c r="O40" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="P40" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="Q40" t="n">
         <v>15.0</v>
@@ -10926,16 +11010,16 @@
         <v>23.0</v>
       </c>
       <c r="AF40" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="AG40" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AH40" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI40" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ40" t="n">
         <v>8.0</v>
@@ -10944,10 +11028,10 @@
         <v>0.0</v>
       </c>
       <c r="AL40" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AM40" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="AN40" t="n">
         <v>64.0</v>
@@ -11090,16 +11174,16 @@
         <v>122</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C41" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F41" t="n">
         <v>1.0</v>
@@ -11108,7 +11192,7 @@
         <v>2.0</v>
       </c>
       <c r="H41" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I41" t="n">
         <v>1.0</v>
@@ -11117,7 +11201,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L41" t="n">
         <v>3.41</v>
@@ -11129,10 +11213,10 @@
         <v>2.1</v>
       </c>
       <c r="O41" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q41" t="n">
         <v>12.0</v>
@@ -11180,16 +11264,16 @@
         <v>23.0</v>
       </c>
       <c r="AF41" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AG41" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH41" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI41" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ41" t="n">
         <v>6.0</v>
@@ -11198,10 +11282,10 @@
         <v>0.0</v>
       </c>
       <c r="AL41" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="AM41" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="AN41" t="n">
         <v>191.0</v>
@@ -11344,16 +11428,16 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C42" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E42" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F42" t="n">
         <v>0.0</v>
@@ -11362,7 +11446,7 @@
         <v>3.0</v>
       </c>
       <c r="H42" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
@@ -11371,7 +11455,7 @@
         <v>2.0</v>
       </c>
       <c r="K42" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L42" t="n">
         <v>3.59</v>
@@ -11383,10 +11467,10 @@
         <v>1.99</v>
       </c>
       <c r="O42" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="Q42" t="n">
         <v>15.0</v>
@@ -11434,16 +11518,16 @@
         <v>26.0</v>
       </c>
       <c r="AF42" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="AG42" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH42" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI42" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ42" t="n">
         <v>7.0</v>
@@ -11452,10 +11536,10 @@
         <v>0.0</v>
       </c>
       <c r="AL42" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="AM42" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="AN42" t="n">
         <v>79.0</v>
@@ -11598,16 +11682,16 @@
         <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C43" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D43" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E43" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F43" t="n">
         <v>3.0</v>
@@ -11616,7 +11700,7 @@
         <v>1.0</v>
       </c>
       <c r="H43" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I43" t="n">
         <v>0.0</v>
@@ -11625,7 +11709,7 @@
         <v>1.0</v>
       </c>
       <c r="K43" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L43" t="n">
         <v>1.59</v>
@@ -11637,10 +11721,10 @@
         <v>5.44</v>
       </c>
       <c r="O43" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P43" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="Q43" t="n">
         <v>9.0</v>
@@ -11688,16 +11772,16 @@
         <v>27.0</v>
       </c>
       <c r="AF43" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="AG43" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH43" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI43" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AJ43" t="n">
         <v>9.0</v>
@@ -11706,10 +11790,10 @@
         <v>0.0</v>
       </c>
       <c r="AL43" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="AM43" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="AN43" t="n">
         <v>276.0</v>
@@ -11852,16 +11936,16 @@
         <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C44" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F44" t="n">
         <v>3.0</v>
@@ -11870,7 +11954,7 @@
         <v>1.0</v>
       </c>
       <c r="H44" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I44" t="n">
         <v>2.0</v>
@@ -11879,7 +11963,7 @@
         <v>0.0</v>
       </c>
       <c r="K44" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L44" t="n">
         <v>2.89</v>
@@ -11891,10 +11975,10 @@
         <v>2.47</v>
       </c>
       <c r="O44" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P44" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="Q44" t="n">
         <v>22.0</v>
@@ -11942,16 +12026,16 @@
         <v>24.0</v>
       </c>
       <c r="AF44" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="AG44" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH44" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI44" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AJ44" t="n">
         <v>6.0</v>
@@ -11960,10 +12044,10 @@
         <v>0.0</v>
       </c>
       <c r="AL44" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AM44" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="AN44" t="n">
         <v>163.0</v>
@@ -12106,16 +12190,16 @@
         <v>126</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C45" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F45" t="n">
         <v>1.0</v>
@@ -12124,7 +12208,7 @@
         <v>1.0</v>
       </c>
       <c r="H45" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
@@ -12133,7 +12217,7 @@
         <v>1.0</v>
       </c>
       <c r="K45" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L45" t="n">
         <v>2.54</v>
@@ -12145,10 +12229,10 @@
         <v>2.88</v>
       </c>
       <c r="O45" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P45" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q45" t="n">
         <v>12.0</v>
@@ -12196,16 +12280,16 @@
         <v>23.0</v>
       </c>
       <c r="AF45" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="AG45" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH45" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI45" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ45" t="n">
         <v>3.0</v>
@@ -12214,10 +12298,10 @@
         <v>0.0</v>
       </c>
       <c r="AL45" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AM45" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="AN45" t="n">
         <v>85.0</v>
@@ -12360,16 +12444,16 @@
         <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C46" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D46" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E46" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="F46" t="n">
         <v>3.0</v>
@@ -12378,7 +12462,7 @@
         <v>0.0</v>
       </c>
       <c r="H46" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I46" t="n">
         <v>3.0</v>
@@ -12387,7 +12471,7 @@
         <v>0.0</v>
       </c>
       <c r="K46" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L46" t="n">
         <v>1.28</v>
@@ -12399,10 +12483,10 @@
         <v>9.45</v>
       </c>
       <c r="O46" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="Q46" t="n">
         <v>19.0</v>
@@ -12450,16 +12534,16 @@
         <v>22.0</v>
       </c>
       <c r="AF46" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="AG46" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH46" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI46" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ46" t="n">
         <v>5.0</v>
@@ -12468,10 +12552,10 @@
         <v>0.0</v>
       </c>
       <c r="AL46" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="AM46" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="AN46" t="n">
         <v>91.0</v>
@@ -12614,16 +12698,16 @@
         <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C47" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E47" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F47" t="n">
         <v>1.0</v>
@@ -12632,7 +12716,7 @@
         <v>1.0</v>
       </c>
       <c r="H47" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I47" t="n">
         <v>1.0</v>
@@ -12641,7 +12725,7 @@
         <v>0.0</v>
       </c>
       <c r="K47" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L47" t="n">
         <v>2.27</v>
@@ -12653,10 +12737,10 @@
         <v>3.24</v>
       </c>
       <c r="O47" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P47" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q47" t="n">
         <v>11.0</v>
@@ -12704,16 +12788,16 @@
         <v>32.0</v>
       </c>
       <c r="AF47" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="AG47" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH47" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI47" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ47" t="n">
         <v>8.0</v>
@@ -12722,10 +12806,10 @@
         <v>0.0</v>
       </c>
       <c r="AL47" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="AM47" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="AN47" t="n">
         <v>95.0</v>
@@ -12868,16 +12952,16 @@
         <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C48" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F48" t="n">
         <v>3.0</v>
@@ -12886,7 +12970,7 @@
         <v>1.0</v>
       </c>
       <c r="H48" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I48" t="n">
         <v>2.0</v>
@@ -12895,7 +12979,7 @@
         <v>1.0</v>
       </c>
       <c r="K48" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L48" t="n">
         <v>1.55</v>
@@ -12907,10 +12991,10 @@
         <v>5.48</v>
       </c>
       <c r="O48" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="P48" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="Q48" t="n">
         <v>23.0</v>
@@ -12958,16 +13042,16 @@
         <v>20.0</v>
       </c>
       <c r="AF48" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="AG48" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH48" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI48" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AJ48" t="n">
         <v>4.0</v>
@@ -12976,10 +13060,10 @@
         <v>0.0</v>
       </c>
       <c r="AL48" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="AM48" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="AN48" t="n">
         <v>122.0</v>
@@ -13122,16 +13206,16 @@
         <v>130</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C49" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D49" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E49" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F49" t="n">
         <v>0.0</v>
@@ -13140,7 +13224,7 @@
         <v>0.0</v>
       </c>
       <c r="H49" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I49" t="n">
         <v>0.0</v>
@@ -13149,7 +13233,7 @@
         <v>0.0</v>
       </c>
       <c r="K49" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L49" t="n">
         <v>2.92</v>
@@ -13161,10 +13245,10 @@
         <v>2.35</v>
       </c>
       <c r="O49" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="P49" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Q49" t="n">
         <v>9.0</v>
@@ -13212,16 +13296,16 @@
         <v>19.0</v>
       </c>
       <c r="AF49" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="AG49" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AH49" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI49" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AJ49" t="n">
         <v>4.0</v>
@@ -13230,10 +13314,10 @@
         <v>0.0</v>
       </c>
       <c r="AL49" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="AM49" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="AN49" t="n">
         <v>0.0</v>
@@ -13376,16 +13460,16 @@
         <v>131</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C50" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E50" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F50" t="n">
         <v>2.0</v>
@@ -13394,7 +13478,7 @@
         <v>2.0</v>
       </c>
       <c r="H50" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I50" t="n">
         <v>2.0</v>
@@ -13403,7 +13487,7 @@
         <v>1.0</v>
       </c>
       <c r="K50" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L50" t="n">
         <v>1.79</v>
@@ -13415,10 +13499,10 @@
         <v>4.51</v>
       </c>
       <c r="O50" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="P50" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="Q50" t="n">
         <v>14.0</v>
@@ -13466,16 +13550,16 @@
         <v>23.0</v>
       </c>
       <c r="AF50" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="AG50" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH50" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI50" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AJ50" t="n">
         <v>7.0</v>
@@ -13484,10 +13568,10 @@
         <v>1.0</v>
       </c>
       <c r="AL50" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="AM50" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="AN50" t="n">
         <v>170.0</v>
@@ -13630,16 +13714,16 @@
         <v>132</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C51" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E51" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F51" t="n">
         <v>2.0</v>
@@ -13648,7 +13732,7 @@
         <v>2.0</v>
       </c>
       <c r="H51" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I51" t="n">
         <v>1.0</v>
@@ -13657,7 +13741,7 @@
         <v>2.0</v>
       </c>
       <c r="K51" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L51" t="n">
         <v>1.85</v>
@@ -13669,10 +13753,10 @@
         <v>4.54</v>
       </c>
       <c r="O51" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="P51" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="Q51" t="n">
         <v>33.0</v>
@@ -13720,16 +13804,16 @@
         <v>17.0</v>
       </c>
       <c r="AF51" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="AG51" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AH51" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AI51" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AJ51" t="n">
         <v>7.0</v>
@@ -13738,10 +13822,10 @@
         <v>1.0</v>
       </c>
       <c r="AL51" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="AM51" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="AN51" t="n">
         <v>166.0</v>
@@ -13877,6 +13961,2546 @@
       </c>
       <c r="CF51" t="n">
         <v>140.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" t="s">
+        <v>157</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>166</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>165</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O52" t="s">
+        <v>169</v>
+      </c>
+      <c r="P52" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>296</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>1600.0</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>880.0</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>2720.0</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>374.0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>1023.0</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BQ52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR52" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BS52" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BT52" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="BV52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW52" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="BX52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY52" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="BZ52" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="CA52" t="n">
+        <v>451.0</v>
+      </c>
+      <c r="CB52" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CC52" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="CD52" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CE52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF52" t="n">
+        <v>113.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53" t="s">
+        <v>153</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>164</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>164</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M53" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="N53" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="O53" t="s">
+        <v>172</v>
+      </c>
+      <c r="P53" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>301</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>355.0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>4140.0</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>414.0</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>1173.0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>6035.0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>6120.0</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BQ53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS53" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BT53" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="BV53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW53" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="BX53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY53" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="BZ53" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="CA53" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="CB53" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CC53" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="CD53" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="CE53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF53" t="n">
+        <v>171.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" t="s">
+        <v>150</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>166</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>164</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O54" t="s">
+        <v>168</v>
+      </c>
+      <c r="P54" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>2350.0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>658.0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>770.0</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>1400.0</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ54" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR54" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS54" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BT54" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="BV54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW54" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="BX54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY54" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="BZ54" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="CA54" t="n">
+        <v>359.0</v>
+      </c>
+      <c r="CB54" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="CC54" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CD54" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CE54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF54" t="n">
+        <v>97.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" t="s">
+        <v>154</v>
+      </c>
+      <c r="F55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>164</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>164</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N55" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="O55" t="s">
+        <v>178</v>
+      </c>
+      <c r="P55" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>311</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>5700.0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>684.0</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>1140.0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>1620.0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BQ55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BT55" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="BV55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW55" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="BX55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY55" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="BZ55" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="CA55" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="CB55" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="CC55" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="CD55" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="CE55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF55" t="n">
+        <v>155.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" t="s">
+        <v>155</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>164</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>165</v>
+      </c>
+      <c r="L56" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="O56" t="s">
+        <v>169</v>
+      </c>
+      <c r="P56" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>314</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>390.0</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>1443.0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>1170.0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ56" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS56" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BT56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="BV56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY56" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="BZ56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA56" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="CB56" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="CC56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD56" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="CE56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF56" t="n">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>165</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>166</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O57" t="s">
+        <v>167</v>
+      </c>
+      <c r="P57" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>232</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>289</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>309</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>660.0</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>420.0</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>561.0</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>660.0</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR57" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BS57" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BT57" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="BV57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW57" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="BX57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY57" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="BZ57" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="CA57" t="n">
+        <v>367.0</v>
+      </c>
+      <c r="CB57" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="CC57" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="CD57" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="CE57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF57" t="n">
+        <v>88.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>165</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>165</v>
+      </c>
+      <c r="L58" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O58" t="s">
+        <v>169</v>
+      </c>
+      <c r="P58" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>290</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>950.0</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>1944.0</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BQ58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS58" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BT58" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="BV58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW58" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="BX58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY58" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="BZ58" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="CA58" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="CB58" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="CC58" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CD58" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CE58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF58" t="n">
+        <v>116.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" t="s">
+        <v>160</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>166</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>165</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O59" t="s">
+        <v>174</v>
+      </c>
+      <c r="P59" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>308</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>3800.0</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>760.0</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>1270.0</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BQ59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS59" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BT59" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="BV59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW59" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BX59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY59" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="BZ59" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CA59" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="CB59" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="CC59" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CD59" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CE59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF59" t="n">
+        <v>115.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" t="s">
+        <v>159</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>165</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>165</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O60" t="s">
+        <v>169</v>
+      </c>
+      <c r="P60" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>292</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>2250.0</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>315.0</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>6510.0</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>496.0</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>2520.0</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="BQ60" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR60" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS60" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BT60" t="n">
+        <v>2600.0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>242.0</v>
+      </c>
+      <c r="BV60" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="BW60" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="BX60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY60" t="n">
+        <v>326.0</v>
+      </c>
+      <c r="BZ60" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="CA60" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="CB60" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="CC60" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CD60" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="CE60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF60" t="n">
+        <v>124.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" t="n" s="2">
+        <v>45565.0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" t="s">
+        <v>158</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>164</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>164</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="O61" t="s">
+        <v>177</v>
+      </c>
+      <c r="P61" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>299</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>770.0</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>3500.0</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>1529.0</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>3080.0</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BQ61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR61" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BS61" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BT61" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="BV61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW61" t="n">
+        <v>282.0</v>
+      </c>
+      <c r="BX61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY61" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="BZ61" t="n">
+        <v>282.0</v>
+      </c>
+      <c r="CA61" t="n">
+        <v>378.0</v>
+      </c>
+      <c r="CB61" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CC61" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="CD61" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="CE61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF61" t="n">
+        <v>128.0</v>
       </c>
     </row>
   </sheetData>
